--- a/CustomLocalization-RU/Localization/RogueTech/RU/RogueModuleTech Quirks/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/RogueModuleTech Quirks/LocalizationDef.xlsx
@@ -11459,8 +11459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2339" workbookViewId="0">
-      <selection activeCell="C2364" sqref="C2364"/>
+    <sheetView tabSelected="1" topLeftCell="A1550" workbookViewId="0">
+      <selection activeCell="C1562" sqref="C1562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
